--- a/tut05/output/0401CS17.xlsx
+++ b/tut05/output/0401CS17.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.816326530612244</v>
+        <v>8.82</v>
       </c>
       <c r="C6" t="n">
-        <v>8.090909090909092</v>
+        <v>8.09</v>
       </c>
       <c r="D6" t="n">
-        <v>8.348837209302326</v>
+        <v>8.35</v>
       </c>
       <c r="E6" t="n">
-        <v>7.553191489361702</v>
+        <v>7.55</v>
       </c>
       <c r="F6" t="n">
-        <v>9.119047619047619</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>8.5</v>
       </c>
       <c r="H6" t="n">
-        <v>9.024390243902438</v>
+        <v>9.02</v>
       </c>
       <c r="I6" t="n">
         <v>9.1</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.816326530612244</v>
+        <v>8.82</v>
       </c>
       <c r="C8" t="n">
-        <v>8.473118279569892</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>8.433823529411764</v>
+        <v>8.43</v>
       </c>
       <c r="E8" t="n">
-        <v>8.207650273224044</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.377777777777778</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.39622641509434</v>
+        <v>8.4</v>
       </c>
       <c r="H8" t="n">
-        <v>8.480392156862745</v>
+        <v>8.48</v>
       </c>
       <c r="I8" t="n">
-        <v>8.552023121387283</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
   </sheetData>
